--- a/IBK/excel/BL_result_0725_SAMPLE_1.1.4.xlsx
+++ b/IBK/excel/BL_result_0725_SAMPLE_1.1.4.xlsx
@@ -5116,7 +5116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5129,8 +5129,14 @@
         <bgColor rgb="FFADFF2F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5138,11 +5144,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5150,11 +5165,16 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5182,76 +5202,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5562,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5656,28 +5606,28 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="7" t="s">
         <v>434</v>
       </c>
       <c r="I4" s="2">
@@ -5976,28 +5926,28 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>43516</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="7" t="s">
         <v>481</v>
       </c>
       <c r="I15" s="2">
@@ -6041,28 +5991,28 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <v>43508</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="7" t="s">
         <v>491</v>
       </c>
       <c r="I17" s="2">
@@ -6134,28 +6084,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="7" t="s">
         <v>507</v>
       </c>
       <c r="I20" s="2">
@@ -6168,28 +6118,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="7" t="s">
         <v>513</v>
       </c>
       <c r="I21" s="2">
@@ -6233,28 +6183,28 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="7" t="s">
         <v>526</v>
       </c>
       <c r="I23" s="2">
@@ -6289,28 +6239,28 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="7" t="s">
         <v>535</v>
       </c>
       <c r="I25" s="2">
@@ -6323,28 +6273,28 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="7" t="s">
         <v>541</v>
       </c>
       <c r="I26" s="2">
@@ -6357,28 +6307,28 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="7" t="s">
         <v>545</v>
       </c>
       <c r="I27" s="2">
@@ -6391,28 +6341,28 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="7" t="s">
         <v>552</v>
       </c>
       <c r="I28" s="2">
@@ -6456,28 +6406,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="7" t="s">
         <v>564</v>
       </c>
       <c r="I30" s="2">
@@ -6490,28 +6440,28 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="7" t="s">
         <v>571</v>
       </c>
       <c r="I31" s="2">
@@ -6524,28 +6474,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="7" t="s">
         <v>571</v>
       </c>
       <c r="I32" s="2">
@@ -6617,28 +6567,28 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="7">
         <v>43487</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="7" t="s">
         <v>586</v>
       </c>
       <c r="I35" s="2">
@@ -6679,25 +6629,26 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="8">
         <v>43492</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="8" t="s">
         <v>591</v>
       </c>
       <c r="I37" s="2">
@@ -6710,28 +6661,28 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="7" t="s">
         <v>596</v>
       </c>
       <c r="I38" s="2">
@@ -6772,28 +6723,28 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="7" t="s">
         <v>607</v>
       </c>
       <c r="I40" s="2">
@@ -6806,28 +6757,28 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="7" t="s">
         <v>609</v>
       </c>
       <c r="I41" s="2">
@@ -6840,28 +6791,28 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="7" t="s">
         <v>609</v>
       </c>
       <c r="I42" s="2">
@@ -6874,28 +6825,28 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="7" t="s">
         <v>507</v>
       </c>
       <c r="I43" s="2">
@@ -7067,28 +7018,28 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="7" t="s">
         <v>632</v>
       </c>
       <c r="I50" s="2">
@@ -7176,28 +7127,28 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="7" t="s">
         <v>645</v>
       </c>
       <c r="I54" s="2">
@@ -7266,28 +7217,28 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="7" t="s">
         <v>657</v>
       </c>
       <c r="I57" s="2">
@@ -7331,28 +7282,28 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="7" t="s">
         <v>657</v>
       </c>
       <c r="I59" s="2">
@@ -7396,28 +7347,28 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="7" t="s">
         <v>657</v>
       </c>
       <c r="I61" s="2">
@@ -7429,63 +7380,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="7" t="s">
         <v>486</v>
       </c>
       <c r="I63" s="2">
@@ -7591,28 +7542,28 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="7" t="s">
         <v>678</v>
       </c>
       <c r="I67" s="2">
@@ -7808,28 +7759,28 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="7" t="s">
         <v>708</v>
       </c>
       <c r="I74" s="2">
@@ -7991,28 +7942,28 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="7" t="s">
         <v>737</v>
       </c>
       <c r="I80" s="2">
@@ -8511,28 +8462,28 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="7">
         <v>43506</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="7" t="s">
         <v>791</v>
       </c>
       <c r="I99" s="2">
@@ -8604,28 +8555,28 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="7" t="s">
         <v>803</v>
       </c>
       <c r="I102" s="2">
@@ -8698,28 +8649,28 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I106" s="2">
@@ -8910,28 +8861,28 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" s="7" t="s">
         <v>828</v>
       </c>
       <c r="I114" s="2">
@@ -8944,28 +8895,28 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" s="7" t="s">
         <v>834</v>
       </c>
       <c r="I115" s="2">
@@ -9006,28 +8957,28 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="7" t="s">
         <v>840</v>
       </c>
       <c r="I117" s="2">
@@ -9102,28 +9053,28 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="H120" s="7" t="s">
         <v>856</v>
       </c>
       <c r="I120" s="2">
@@ -9161,28 +9112,28 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H122" s="7" t="s">
         <v>863</v>
       </c>
       <c r="I122" s="2">
@@ -9195,28 +9146,28 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="H123" s="7" t="s">
         <v>868</v>
       </c>
       <c r="I123" s="2">
@@ -9229,28 +9180,28 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H124" s="7" t="s">
         <v>872</v>
       </c>
       <c r="I124" s="2">
@@ -9316,28 +9267,28 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" s="7" t="s">
         <v>882</v>
       </c>
       <c r="I127" s="2">
@@ -9486,28 +9437,28 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="H135" s="7" t="s">
         <v>897</v>
       </c>
       <c r="I135" s="2">
@@ -9613,28 +9564,28 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H139" s="7" t="s">
         <v>872</v>
       </c>
       <c r="I139" s="2">
@@ -9788,28 +9739,28 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="H146" s="7" t="s">
         <v>933</v>
       </c>
       <c r="I146" s="2">
@@ -9822,28 +9773,28 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H147" s="7" t="s">
         <v>933</v>
       </c>
       <c r="I147" s="2">
@@ -9990,28 +9941,28 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="7">
         <v>43514</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="H153" s="7" t="s">
         <v>958</v>
       </c>
       <c r="I153" s="2">
@@ -10214,28 +10165,28 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F161" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="H161" s="2" t="s">
+      <c r="H161" s="7" t="s">
         <v>986</v>
       </c>
       <c r="I161" s="2">
@@ -10248,28 +10199,28 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F162" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="H162" s="7" t="s">
         <v>986</v>
       </c>
       <c r="I162" s="2">
@@ -10282,28 +10233,28 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F163" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="H163" s="2" t="s">
+      <c r="H163" s="7" t="s">
         <v>986</v>
       </c>
       <c r="I163" s="2">
@@ -10316,19 +10267,22 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="C164" s="8"/>
+      <c r="D164" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="H164" s="2" t="s">
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8" t="s">
         <v>993</v>
       </c>
       <c r="I164" s="2">
@@ -10341,19 +10295,22 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="H165" s="2" t="s">
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8" t="s">
         <v>997</v>
       </c>
       <c r="I165" s="2">
@@ -10366,9 +10323,16 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="8" t="s">
         <v>172</v>
       </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
       <c r="I166" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -11136,28 +11100,28 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="F201" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="G201" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="H201" s="2" t="s">
+      <c r="H201" s="7" t="s">
         <v>1057</v>
       </c>
       <c r="I201" s="2">
@@ -11170,28 +11134,28 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="F202" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="G202" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H202" s="2" t="s">
+      <c r="H202" s="7" t="s">
         <v>1061</v>
       </c>
       <c r="I202" s="2">
@@ -11288,28 +11252,28 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="F206" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="G206" s="2" t="s">
+      <c r="G206" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="H206" s="2" t="s">
+      <c r="H206" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="I206" s="2">
@@ -11353,28 +11317,28 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="F208" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G208" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H208" s="2" t="s">
+      <c r="H208" s="7" t="s">
         <v>1086</v>
       </c>
       <c r="I208" s="2">
@@ -11468,28 +11432,28 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="F212" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="G212" s="2" t="s">
+      <c r="G212" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="H212" s="2" t="s">
+      <c r="H212" s="7" t="s">
         <v>1101</v>
       </c>
       <c r="I212" s="2">
@@ -11564,28 +11528,28 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F215" s="2" t="s">
+      <c r="F215" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="G215" s="2" t="s">
+      <c r="G215" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="H215" s="2" t="s">
+      <c r="H215" s="7" t="s">
         <v>571</v>
       </c>
       <c r="I215" s="2">
@@ -11683,28 +11647,28 @@
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="F220" s="2" t="s">
+      <c r="F220" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G220" s="7">
         <v>43504</v>
       </c>
-      <c r="H220" s="2" t="s">
+      <c r="H220" s="7" t="s">
         <v>1124</v>
       </c>
       <c r="I220" s="2">
@@ -11792,28 +11756,28 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="F224" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="G224" s="2" t="s">
+      <c r="G224" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="H224" s="2" t="s">
+      <c r="H224" s="7" t="s">
         <v>1138</v>
       </c>
       <c r="I224" s="2">
@@ -11960,28 +11924,28 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="F230" s="2" t="s">
+      <c r="F230" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G230" s="2" t="s">
+      <c r="G230" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="H230" s="2" t="s">
+      <c r="H230" s="7" t="s">
         <v>1157</v>
       </c>
       <c r="I230" s="2">
@@ -12022,28 +11986,28 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="F232" s="2" t="s">
+      <c r="F232" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="G232" s="2" t="s">
+      <c r="G232" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H232" s="2" t="s">
+      <c r="H232" s="7" t="s">
         <v>1160</v>
       </c>
       <c r="I232" s="2">
@@ -12056,28 +12020,28 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="F233" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="G233" s="2" t="s">
+      <c r="G233" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="H233" s="2" t="s">
+      <c r="H233" s="7" t="s">
         <v>1157</v>
       </c>
       <c r="I233" s="2">
@@ -12090,28 +12054,28 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F234" s="2" t="s">
+      <c r="F234" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="G234" s="4">
+      <c r="G234" s="7">
         <v>43499</v>
       </c>
-      <c r="H234" s="2" t="s">
+      <c r="H234" s="7" t="s">
         <v>1166</v>
       </c>
       <c r="I234" s="2">
@@ -12787,28 +12751,28 @@
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="E259" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="F259" s="2" t="s">
+      <c r="F259" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="G259" s="4">
+      <c r="G259" s="7">
         <v>43514</v>
       </c>
-      <c r="H259" s="2" t="s">
+      <c r="H259" s="7" t="s">
         <v>1171</v>
       </c>
       <c r="I259" s="2">
@@ -12921,28 +12885,28 @@
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="F264" s="2" t="s">
+      <c r="F264" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="G264" s="2" t="s">
+      <c r="G264" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="H264" s="2" t="s">
+      <c r="H264" s="7" t="s">
         <v>1256</v>
       </c>
       <c r="I264" s="2">
@@ -12955,28 +12919,28 @@
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="F265" s="2" t="s">
+      <c r="F265" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="G265" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H265" s="2" t="s">
+      <c r="H265" s="7" t="s">
         <v>1259</v>
       </c>
       <c r="I265" s="2">
@@ -13033,28 +12997,28 @@
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="7" t="s">
         <v>1267</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="E268" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="F268" s="2" t="s">
+      <c r="F268" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G268" s="2" t="s">
+      <c r="G268" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H268" s="2" t="s">
+      <c r="H268" s="7" t="s">
         <v>1270</v>
       </c>
       <c r="I268" s="2">
@@ -13067,28 +13031,28 @@
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="7" t="s">
         <v>1271</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="7" t="s">
         <v>1272</v>
       </c>
-      <c r="E269" s="2" t="s">
+      <c r="E269" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F269" s="2" t="s">
+      <c r="F269" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G269" s="2" t="s">
+      <c r="G269" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="H269" s="2" t="s">
+      <c r="H269" s="7" t="s">
         <v>1274</v>
       </c>
       <c r="I269" s="2">
@@ -13179,28 +13143,28 @@
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E273" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="F273" s="2" t="s">
+      <c r="F273" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="G273" s="2" t="s">
+      <c r="G273" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="H273" s="2" t="s">
+      <c r="H273" s="7" t="s">
         <v>1288</v>
       </c>
       <c r="I273" s="2">
@@ -13213,28 +13177,28 @@
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="E274" s="2" t="s">
+      <c r="E274" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F274" s="2" t="s">
+      <c r="F274" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="G274" s="2" t="s">
+      <c r="G274" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H274" s="2" t="s">
+      <c r="H274" s="7" t="s">
         <v>1291</v>
       </c>
       <c r="I274" s="2">
@@ -13297,28 +13261,28 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="7" t="s">
         <v>1299</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="E277" s="7" t="s">
         <v>1301</v>
       </c>
-      <c r="F277" s="2" t="s">
+      <c r="F277" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G277" s="2" t="s">
+      <c r="G277" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="H277" s="2" t="s">
+      <c r="H277" s="7" t="s">
         <v>1302</v>
       </c>
       <c r="I277" s="2">
@@ -13440,28 +13404,28 @@
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="E282" s="2" t="s">
+      <c r="E282" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="F282" s="2" t="s">
+      <c r="F282" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="G282" s="2" t="s">
+      <c r="G282" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="H282" s="2" t="s">
+      <c r="H282" s="7" t="s">
         <v>1320</v>
       </c>
       <c r="I282" s="2">
@@ -13530,28 +13494,28 @@
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="E285" s="2" t="s">
+      <c r="E285" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="F285" s="2" t="s">
+      <c r="F285" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="G285" s="2" t="s">
+      <c r="G285" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="H285" s="2" t="s">
+      <c r="H285" s="7" t="s">
         <v>1328</v>
       </c>
       <c r="I285" s="2">
@@ -13564,28 +13528,28 @@
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E286" s="2" t="s">
+      <c r="E286" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F286" s="2" t="s">
+      <c r="F286" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="G286" s="2" t="s">
+      <c r="G286" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="H286" s="2" t="s">
+      <c r="H286" s="7" t="s">
         <v>1334</v>
       </c>
       <c r="I286" s="2">
@@ -13685,28 +13649,28 @@
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="7" t="s">
         <v>1347</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="E290" s="2" t="s">
+      <c r="E290" s="7" t="s">
         <v>1350</v>
       </c>
-      <c r="F290" s="2" t="s">
+      <c r="F290" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G290" s="2" t="s">
+      <c r="G290" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="H290" s="2" t="s">
+      <c r="H290" s="7" t="s">
         <v>541</v>
       </c>
       <c r="I290" s="2">
@@ -13719,28 +13683,28 @@
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="E291" s="2" t="s">
+      <c r="E291" s="7" t="s">
         <v>1350</v>
       </c>
-      <c r="F291" s="2" t="s">
+      <c r="F291" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G291" s="2" t="s">
+      <c r="G291" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="H291" s="2" t="s">
+      <c r="H291" s="7" t="s">
         <v>541</v>
       </c>
       <c r="I291" s="2">
@@ -13940,28 +13904,28 @@
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D299" s="7" t="s">
         <v>1378</v>
       </c>
-      <c r="E299" s="2" t="s">
+      <c r="E299" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="F299" s="2" t="s">
+      <c r="F299" s="7" t="s">
         <v>1380</v>
       </c>
-      <c r="G299" s="2" t="s">
+      <c r="G299" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="H299" s="2" t="s">
+      <c r="H299" s="7" t="s">
         <v>541</v>
       </c>
       <c r="I299" s="2">
@@ -14129,28 +14093,28 @@
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="D305" s="2" t="s">
+      <c r="D305" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="E305" s="2" t="s">
+      <c r="E305" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="F305" s="2" t="s">
+      <c r="F305" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G305" s="2" t="s">
+      <c r="G305" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H305" s="2" t="s">
+      <c r="H305" s="7" t="s">
         <v>1394</v>
       </c>
       <c r="I305" s="2">
@@ -14194,28 +14158,28 @@
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D307" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="E307" s="2" t="s">
+      <c r="E307" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="F307" s="2" t="s">
+      <c r="F307" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="G307" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H307" s="2" t="s">
+      <c r="H307" s="7" t="s">
         <v>1394</v>
       </c>
       <c r="I307" s="2">
@@ -14259,28 +14223,28 @@
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D309" s="7" t="s">
         <v>1402</v>
       </c>
-      <c r="E309" s="2" t="s">
+      <c r="E309" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="F309" s="2" t="s">
+      <c r="F309" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G309" s="2" t="s">
+      <c r="G309" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H309" s="2" t="s">
+      <c r="H309" s="7" t="s">
         <v>1403</v>
       </c>
       <c r="I309" s="2">
@@ -14293,28 +14257,28 @@
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="D310" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="E310" s="2" t="s">
+      <c r="E310" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="F310" s="2" t="s">
+      <c r="F310" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G310" s="2" t="s">
+      <c r="G310" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H310" s="2" t="s">
+      <c r="H310" s="7" t="s">
         <v>770</v>
       </c>
       <c r="I310" s="2">
@@ -14543,28 +14507,28 @@
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="7" t="s">
         <v>1419</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="D320" s="2" t="s">
+      <c r="D320" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E320" s="2" t="s">
+      <c r="E320" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="F320" s="2" t="s">
+      <c r="F320" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="G320" s="2" t="s">
+      <c r="G320" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="H320" s="2" t="s">
+      <c r="H320" s="7" t="s">
         <v>1422</v>
       </c>
       <c r="I320" s="2">
@@ -14627,28 +14591,28 @@
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="D323" s="2" t="s">
+      <c r="D323" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="E323" s="2" t="s">
+      <c r="E323" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="F323" s="2" t="s">
+      <c r="F323" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="G323" s="2" t="s">
+      <c r="G323" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="H323" s="2" t="s">
+      <c r="H323" s="7" t="s">
         <v>1433</v>
       </c>
       <c r="I323" s="2">
@@ -14661,28 +14625,28 @@
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="D324" s="2" t="s">
+      <c r="D324" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="E324" s="2" t="s">
+      <c r="E324" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="F324" s="2" t="s">
+      <c r="F324" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="G324" s="2" t="s">
+      <c r="G324" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="H324" s="2" t="s">
+      <c r="H324" s="7" t="s">
         <v>1439</v>
       </c>
       <c r="I324" s="2">
@@ -14695,28 +14659,28 @@
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="D325" s="2" t="s">
+      <c r="D325" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="E325" s="2" t="s">
+      <c r="E325" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="F325" s="2" t="s">
+      <c r="F325" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="G325" s="2" t="s">
+      <c r="G325" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="H325" s="2" t="s">
+      <c r="H325" s="7" t="s">
         <v>1439</v>
       </c>
       <c r="I325" s="2">
@@ -14729,28 +14693,28 @@
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="D326" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="E326" s="2" t="s">
+      <c r="E326" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="F326" s="2" t="s">
+      <c r="F326" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="G326" s="2" t="s">
+      <c r="G326" s="7" t="s">
         <v>1440</v>
       </c>
-      <c r="H326" s="2" t="s">
+      <c r="H326" s="7" t="s">
         <v>1439</v>
       </c>
       <c r="I326" s="2">
@@ -14763,28 +14727,28 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="7" t="s">
         <v>1442</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" s="7" t="s">
         <v>1443</v>
       </c>
-      <c r="E327" s="2" t="s">
+      <c r="E327" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="F327" s="2" t="s">
+      <c r="F327" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="G327" s="2" t="s">
+      <c r="G327" s="7" t="s">
         <v>1446</v>
       </c>
-      <c r="H327" s="2" t="s">
+      <c r="H327" s="7" t="s">
         <v>1447</v>
       </c>
       <c r="I327" s="2">
@@ -14928,28 +14892,28 @@
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D333" s="7" t="s">
         <v>1464</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="E333" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="F333" s="2" t="s">
+      <c r="F333" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="G333" s="2" t="s">
+      <c r="G333" s="7" t="s">
         <v>1462</v>
       </c>
-      <c r="H333" s="2" t="s">
+      <c r="H333" s="7" t="s">
         <v>1463</v>
       </c>
       <c r="I333" s="2">
@@ -15012,28 +14976,28 @@
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="7" t="s">
         <v>1470</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C336" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="D336" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="E336" s="2" t="s">
+      <c r="E336" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="F336" s="2" t="s">
+      <c r="F336" s="7" t="s">
         <v>1473</v>
       </c>
-      <c r="G336" s="2" t="s">
+      <c r="G336" s="7" t="s">
         <v>1462</v>
       </c>
-      <c r="H336" s="2" t="s">
+      <c r="H336" s="7" t="s">
         <v>1463</v>
       </c>
       <c r="I336" s="2">
@@ -15130,28 +15094,28 @@
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C340" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="D340" s="2" t="s">
+      <c r="D340" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="E340" s="2" t="s">
+      <c r="E340" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="F340" s="2" t="s">
+      <c r="F340" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G340" s="2" t="s">
+      <c r="G340" s="7" t="s">
         <v>1482</v>
       </c>
-      <c r="H340" s="2" t="s">
+      <c r="H340" s="7" t="s">
         <v>1483</v>
       </c>
       <c r="I340" s="2">
@@ -15396,28 +15360,28 @@
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C351" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D351" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="E351" s="2" t="s">
+      <c r="E351" s="7" t="s">
         <v>1512</v>
       </c>
-      <c r="F351" s="2" t="s">
+      <c r="F351" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="G351" s="2" t="s">
+      <c r="G351" s="7" t="s">
         <v>1514</v>
       </c>
-      <c r="H351" s="2" t="s">
+      <c r="H351" s="7" t="s">
         <v>1515</v>
       </c>
       <c r="I351" s="2">
@@ -15624,28 +15588,28 @@
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="7" t="s">
         <v>1532</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C360" s="7" t="s">
         <v>1533</v>
       </c>
-      <c r="D360" s="2" t="s">
+      <c r="D360" s="7" t="s">
         <v>1534</v>
       </c>
-      <c r="E360" s="2" t="s">
+      <c r="E360" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="F360" s="2" t="s">
+      <c r="F360" s="7" t="s">
         <v>1535</v>
       </c>
-      <c r="G360" s="2" t="s">
+      <c r="G360" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="H360" s="2" t="s">
+      <c r="H360" s="7" t="s">
         <v>1536</v>
       </c>
       <c r="I360" s="2">
@@ -15658,28 +15622,28 @@
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C361" s="7" t="s">
         <v>1538</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D361" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E361" s="2" t="s">
+      <c r="E361" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F361" s="2" t="s">
+      <c r="F361" s="7" t="s">
         <v>1535</v>
       </c>
-      <c r="G361" s="2" t="s">
+      <c r="G361" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="H361" s="2" t="s">
+      <c r="H361" s="7" t="s">
         <v>1539</v>
       </c>
       <c r="I361" s="2">
@@ -15754,28 +15718,28 @@
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="7" t="s">
         <v>1546</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C364" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="D364" s="2" t="s">
+      <c r="D364" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E364" s="2" t="s">
+      <c r="E364" s="7" t="s">
         <v>1548</v>
       </c>
-      <c r="F364" s="2" t="s">
+      <c r="F364" s="7" t="s">
         <v>1549</v>
       </c>
-      <c r="G364" s="2" t="s">
+      <c r="G364" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="H364" s="2" t="s">
+      <c r="H364" s="7" t="s">
         <v>1550</v>
       </c>
       <c r="I364" s="2">
@@ -15788,28 +15752,28 @@
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="7" t="s">
         <v>1551</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D365" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E365" s="2" t="s">
+      <c r="E365" s="7" t="s">
         <v>1548</v>
       </c>
-      <c r="F365" s="2" t="s">
+      <c r="F365" s="7" t="s">
         <v>1549</v>
       </c>
-      <c r="G365" s="2" t="s">
+      <c r="G365" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="H365" s="2" t="s">
+      <c r="H365" s="7" t="s">
         <v>1550</v>
       </c>
       <c r="I365" s="2">
@@ -15909,28 +15873,28 @@
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="7" t="s">
         <v>1563</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="7" t="s">
         <v>1564</v>
       </c>
-      <c r="D369" s="2" t="s">
+      <c r="D369" s="7" t="s">
         <v>1565</v>
       </c>
-      <c r="E369" s="2" t="s">
+      <c r="E369" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F369" s="2" t="s">
+      <c r="F369" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="G369" s="2" t="s">
+      <c r="G369" s="7" t="s">
         <v>1566</v>
       </c>
-      <c r="H369" s="2" t="s">
+      <c r="H369" s="7" t="s">
         <v>1081</v>
       </c>
       <c r="I369" s="2">
@@ -16027,28 +15991,28 @@
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="7" t="s">
         <v>1578</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" s="7" t="s">
         <v>1576</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D373" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E373" s="2" t="s">
+      <c r="E373" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="F373" s="2" t="s">
+      <c r="F373" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="G373" s="2" t="s">
+      <c r="G373" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="H373" s="2" t="s">
+      <c r="H373" s="7" t="s">
         <v>1577</v>
       </c>
       <c r="I373" s="2">
@@ -16190,28 +16154,28 @@
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="7" t="s">
         <v>1587</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D380" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="E380" s="2" t="s">
+      <c r="E380" s="7" t="s">
         <v>1589</v>
       </c>
-      <c r="F380" s="2" t="s">
+      <c r="F380" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="G380" s="2" t="s">
+      <c r="G380" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="H380" s="2" t="s">
+      <c r="H380" s="7" t="s">
         <v>1591</v>
       </c>
       <c r="I380" s="2">
@@ -16255,28 +16219,28 @@
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="7" t="s">
         <v>1595</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C382" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D382" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="E382" s="2" t="s">
+      <c r="E382" s="7" t="s">
         <v>1596</v>
       </c>
-      <c r="F382" s="2" t="s">
+      <c r="F382" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="G382" s="2" t="s">
+      <c r="G382" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="H382" s="2" t="s">
+      <c r="H382" s="7" t="s">
         <v>1591</v>
       </c>
       <c r="I382" s="2">
@@ -16370,28 +16334,28 @@
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="7" t="s">
         <v>1609</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="7" t="s">
         <v>1610</v>
       </c>
-      <c r="D386" s="2" t="s">
+      <c r="D386" s="7" t="s">
         <v>1601</v>
       </c>
-      <c r="E386" s="2" t="s">
+      <c r="E386" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F386" s="2" t="s">
+      <c r="F386" s="7" t="s">
         <v>1607</v>
       </c>
-      <c r="G386" s="2" t="s">
+      <c r="G386" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H386" s="2" t="s">
+      <c r="H386" s="7" t="s">
         <v>1603</v>
       </c>
       <c r="I386" s="2">
@@ -16404,28 +16368,28 @@
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="7" t="s">
         <v>1611</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C387" s="7" t="s">
         <v>1612</v>
       </c>
-      <c r="D387" s="2" t="s">
+      <c r="D387" s="7" t="s">
         <v>1613</v>
       </c>
-      <c r="E387" s="2" t="s">
+      <c r="E387" s="7" t="s">
         <v>1614</v>
       </c>
-      <c r="F387" s="2" t="s">
+      <c r="F387" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G387" s="2" t="s">
+      <c r="G387" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H387" s="2" t="s">
+      <c r="H387" s="7" t="s">
         <v>1615</v>
       </c>
       <c r="I387" s="2">
@@ -16700,28 +16664,28 @@
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="7" t="s">
         <v>1648</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C398" s="7" t="s">
         <v>1649</v>
       </c>
-      <c r="D398" s="2" t="s">
+      <c r="D398" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E398" s="2" t="s">
+      <c r="E398" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="F398" s="2" t="s">
+      <c r="F398" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="G398" s="2" t="s">
+      <c r="G398" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="H398" s="2" t="s">
+      <c r="H398" s="7" t="s">
         <v>1651</v>
       </c>
       <c r="I398" s="2">
@@ -16816,28 +16780,28 @@
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="7" t="s">
         <v>1658</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="C403" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="D403" s="2" t="s">
+      <c r="D403" s="7" t="s">
         <v>1659</v>
       </c>
-      <c r="E403" s="2" t="s">
+      <c r="E403" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="F403" s="2" t="s">
+      <c r="F403" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="G403" s="4">
+      <c r="G403" s="7">
         <v>43516</v>
       </c>
-      <c r="H403" s="2" t="s">
+      <c r="H403" s="7" t="s">
         <v>1171</v>
       </c>
       <c r="I403" s="2">
@@ -17032,28 +16996,28 @@
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="7" t="s">
         <v>1681</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C412" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D412" s="2" t="s">
+      <c r="D412" s="7" t="s">
         <v>1682</v>
       </c>
-      <c r="E412" s="2" t="s">
+      <c r="E412" s="7" t="s">
         <v>1683</v>
       </c>
-      <c r="F412" s="2" t="s">
+      <c r="F412" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G412" s="4">
+      <c r="G412" s="7">
         <v>43516</v>
       </c>
-      <c r="H412" s="2" t="s">
+      <c r="H412" s="7" t="s">
         <v>1684</v>
       </c>
       <c r="I412" s="2">
@@ -17102,21 +17066,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I413">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>